--- a/Components/YadleyLouidort_1610Wk2_Burn-up_List.xlsx
+++ b/Components/YadleyLouidort_1610Wk2_Burn-up_List.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="460" windowWidth="10000" windowHeight="15140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Yadley Louidort</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>Late</t>
+  </si>
+  <si>
+    <t>Don’t Be Late</t>
+  </si>
+  <si>
+    <t>Post On Time</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review </t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -124,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +198,12 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -342,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1153,13 +1180,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -1170,7 +1197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4036060" y="1539240"/>
+          <a:off x="4963160" y="1539240"/>
           <a:ext cx="144780" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1210,15 +1237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>754380</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>187960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1227,7 +1254,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2997200" y="1143000"/>
+          <a:off x="3302000" y="1155700"/>
           <a:ext cx="144780" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1268,69 +1295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>332740</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>551180</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>477520</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>695960</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>187960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Multiply 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3634740" y="1917700"/>
-          <a:ext cx="144780" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1339,7 +1312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3484880" y="2286000"/>
+          <a:off x="4246880" y="2298700"/>
           <a:ext cx="144780" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1380,13 +1353,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>708660</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -1397,7 +1370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3484880" y="2667000"/>
+          <a:off x="4259580" y="2667000"/>
           <a:ext cx="144780" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1430,60 +1403,6 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Multiply 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3012440" y="3429000"/>
-          <a:ext cx="144780" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1599,25 +1518,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>96520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Multiply 9"/>
+        <xdr:cNvPr id="11" name="Multiply 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2788920" y="4559300"/>
+          <a:off x="4917440" y="4953000"/>
           <a:ext cx="144780" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1626,6 +1545,168 @@
         <a:solidFill>
           <a:srgbClr val="FF0000"/>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>995680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Multiply 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="3060700"/>
+          <a:ext cx="144780" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>995680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Multiply 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="3429000"/>
+          <a:ext cx="144780" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Multiply 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="4559300"/>
+          <a:ext cx="144780" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1657,25 +1738,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Multiply 10"/>
+        <xdr:cNvPr id="17" name="Multiply 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4028440" y="4953000"/>
-          <a:ext cx="144780" cy="175260"/>
+          <a:off x="4965700" y="1905000"/>
+          <a:ext cx="144780" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
           <a:avLst/>
@@ -1706,64 +1787,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Multiply 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3492500" y="3048000"/>
-          <a:ext cx="144780" cy="175260"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2051,36 +2074,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="37">
         <v>42381</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2089,17 +2112,17 @@
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="13"/>
       <c r="D5" s="15" t="s">
         <v>16</v>
@@ -2120,10 +2143,10 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
@@ -2140,10 +2163,10 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
@@ -2160,10 +2183,10 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
@@ -2180,10 +2203,10 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
@@ -2200,10 +2223,10 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="12" t="s">
         <v>20</v>
       </c>
@@ -2220,10 +2243,10 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
@@ -2240,10 +2263,10 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
@@ -2260,10 +2283,10 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="12" t="s">
         <v>28</v>
       </c>
@@ -2280,10 +2303,10 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
@@ -2300,10 +2323,10 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="12" t="s">
         <v>20</v>
       </c>
@@ -2320,10 +2343,10 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
@@ -2340,10 +2363,10 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="12" t="s">
         <v>20</v>
       </c>
@@ -2360,10 +2383,10 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
@@ -2400,46 +2423,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="37">
         <v>42388</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -2447,17 +2471,17 @@
       <c r="C4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="13"/>
       <c r="D5" s="15" t="s">
         <v>16</v>
@@ -2478,14 +2502,16 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
@@ -2498,16 +2524,17 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
@@ -2518,16 +2545,17 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
@@ -2538,15 +2566,16 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2558,15 +2587,16 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2578,12 +2608,14 @@
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
@@ -2596,12 +2628,14 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
@@ -2614,10 +2648,10 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="21"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2632,10 +2666,10 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="21"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2650,10 +2684,10 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="21"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -2668,46 +2702,50 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="10"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="21"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="21"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="21"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="21"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2730,7 +2768,9 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A29:B29"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>